--- a/ListagemDosContatos.xlsx
+++ b/ListagemDosContatos.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -196,6 +196,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
